--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.47161033333333</v>
+        <v>95.24255366666667</v>
       </c>
       <c r="H2">
-        <v>295.414831</v>
+        <v>285.727661</v>
       </c>
       <c r="I2">
-        <v>0.2726813444982129</v>
+        <v>0.2732032672746878</v>
       </c>
       <c r="J2">
-        <v>0.272681344498213</v>
+        <v>0.2732032672746877</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N2">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O2">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P2">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q2">
-        <v>4289.351987026379</v>
+        <v>5040.095679505967</v>
       </c>
       <c r="R2">
-        <v>38604.16788323741</v>
+        <v>45360.86111555371</v>
       </c>
       <c r="S2">
-        <v>0.2697959293690084</v>
+        <v>0.2708155682339257</v>
       </c>
       <c r="T2">
-        <v>0.2697959293690084</v>
+        <v>0.2708155682339256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.47161033333333</v>
+        <v>95.24255366666667</v>
       </c>
       <c r="H3">
-        <v>295.414831</v>
+        <v>285.727661</v>
       </c>
       <c r="I3">
-        <v>0.2726813444982129</v>
+        <v>0.2732032672746878</v>
       </c>
       <c r="J3">
-        <v>0.272681344498213</v>
+        <v>0.2732032672746877</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.616788</v>
       </c>
       <c r="O3">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P3">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q3">
-        <v>20.245369198092</v>
+        <v>19.581488063652</v>
       </c>
       <c r="R3">
-        <v>182.208322782828</v>
+        <v>176.233392572868</v>
       </c>
       <c r="S3">
-        <v>0.001273413376831444</v>
+        <v>0.001052156973604031</v>
       </c>
       <c r="T3">
-        <v>0.001273413376831444</v>
+        <v>0.001052156973604031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.47161033333333</v>
+        <v>95.24255366666667</v>
       </c>
       <c r="H4">
-        <v>295.414831</v>
+        <v>285.727661</v>
       </c>
       <c r="I4">
-        <v>0.2726813444982129</v>
+        <v>0.2732032672746878</v>
       </c>
       <c r="J4">
-        <v>0.272681344498213</v>
+        <v>0.2732032672746877</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N4">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O4">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P4">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q4">
-        <v>25.628418248574</v>
+        <v>24.85551272542578</v>
       </c>
       <c r="R4">
-        <v>230.655764237166</v>
+        <v>223.699614528832</v>
       </c>
       <c r="S4">
-        <v>0.001612001752373127</v>
+        <v>0.00133554206715805</v>
       </c>
       <c r="T4">
-        <v>0.001612001752373127</v>
+        <v>0.001335542067158049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>339.504281</v>
       </c>
       <c r="I5">
-        <v>0.3133779150241075</v>
+        <v>0.3246226791565123</v>
       </c>
       <c r="J5">
-        <v>0.3133779150241076</v>
+        <v>0.3246226791565122</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N5">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O5">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P5">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q5">
-        <v>4929.52015097479</v>
+        <v>5988.688857960728</v>
       </c>
       <c r="R5">
-        <v>44365.68135877311</v>
+        <v>53898.19972164654</v>
       </c>
       <c r="S5">
-        <v>0.3100618635397895</v>
+        <v>0.3217855928091798</v>
       </c>
       <c r="T5">
-        <v>0.3100618635397895</v>
+        <v>0.3217855928091798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>339.504281</v>
       </c>
       <c r="I6">
-        <v>0.3133779150241075</v>
+        <v>0.3246226791565123</v>
       </c>
       <c r="J6">
-        <v>0.3133779150241076</v>
+        <v>0.3246226791565122</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>0.616788</v>
       </c>
       <c r="O6">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P6">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q6">
         <v>23.266907385492</v>
@@ -821,10 +821,10 @@
         <v>209.402166469428</v>
       </c>
       <c r="S6">
-        <v>0.001463465092302497</v>
+        <v>0.001250182763448207</v>
       </c>
       <c r="T6">
-        <v>0.001463465092302497</v>
+        <v>0.001250182763448207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>339.504281</v>
       </c>
       <c r="I7">
-        <v>0.3133779150241075</v>
+        <v>0.3246226791565123</v>
       </c>
       <c r="J7">
-        <v>0.3133779150241076</v>
+        <v>0.3246226791565122</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N7">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O7">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P7">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q7">
-        <v>29.453354393874</v>
+        <v>29.53355284958578</v>
       </c>
       <c r="R7">
-        <v>265.080189544866</v>
+        <v>265.801975646272</v>
       </c>
       <c r="S7">
-        <v>0.001852586392015567</v>
+        <v>0.001586903583884192</v>
       </c>
       <c r="T7">
-        <v>0.001852586392015567</v>
+        <v>0.001586903583884191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>91.23572399999999</v>
+        <v>89.83461266666666</v>
       </c>
       <c r="H8">
-        <v>273.707172</v>
+        <v>269.503838</v>
       </c>
       <c r="I8">
-        <v>0.2526441865058685</v>
+        <v>0.2576905883979786</v>
       </c>
       <c r="J8">
-        <v>0.2526441865058685</v>
+        <v>0.2576905883979785</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N8">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O8">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P8">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q8">
-        <v>3974.162021952008</v>
+        <v>4753.915405880412</v>
       </c>
       <c r="R8">
-        <v>35767.45819756807</v>
+        <v>42785.23865292371</v>
       </c>
       <c r="S8">
-        <v>0.2499707973182397</v>
+        <v>0.2554384646336144</v>
       </c>
       <c r="T8">
-        <v>0.2499707973182396</v>
+        <v>0.2554384646336143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>91.23572399999999</v>
+        <v>89.83461266666666</v>
       </c>
       <c r="H9">
-        <v>273.707172</v>
+        <v>269.503838</v>
       </c>
       <c r="I9">
-        <v>0.2526441865058685</v>
+        <v>0.2576905883979786</v>
       </c>
       <c r="J9">
-        <v>0.2526441865058685</v>
+        <v>0.2576905883979785</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>0.616788</v>
       </c>
       <c r="O9">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P9">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q9">
-        <v>18.757699911504</v>
+        <v>18.469637025816</v>
       </c>
       <c r="R9">
-        <v>168.819299203536</v>
+        <v>166.226733232344</v>
       </c>
       <c r="S9">
-        <v>0.001179840473748946</v>
+        <v>0.0009924147405691709</v>
       </c>
       <c r="T9">
-        <v>0.001179840473748946</v>
+        <v>0.0009924147405691705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.23572399999999</v>
+        <v>89.83461266666666</v>
       </c>
       <c r="H10">
-        <v>273.707172</v>
+        <v>269.503838</v>
       </c>
       <c r="I10">
-        <v>0.2526441865058685</v>
+        <v>0.2576905883979786</v>
       </c>
       <c r="J10">
-        <v>0.2526441865058685</v>
+        <v>0.2576905883979785</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N10">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O10">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P10">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q10">
-        <v>23.745191999688</v>
+        <v>23.44419875736178</v>
       </c>
       <c r="R10">
-        <v>213.706727997192</v>
+        <v>210.997788816256</v>
       </c>
       <c r="S10">
-        <v>0.001493548713879882</v>
+        <v>0.001259709023795033</v>
       </c>
       <c r="T10">
-        <v>0.001493548713879882</v>
+        <v>0.001259709023795032</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>58.24795766666667</v>
+        <v>50.36899566666667</v>
       </c>
       <c r="H11">
-        <v>174.743873</v>
+        <v>151.106987</v>
       </c>
       <c r="I11">
-        <v>0.1612965539718111</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="J11">
-        <v>0.1612965539718112</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N11">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O11">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P11">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q11">
-        <v>2537.238825606678</v>
+        <v>2665.453073939048</v>
       </c>
       <c r="R11">
-        <v>22835.1494304601</v>
+        <v>23989.07766545143</v>
       </c>
       <c r="S11">
-        <v>0.1595897723143594</v>
+        <v>0.1432207312561223</v>
       </c>
       <c r="T11">
-        <v>0.1595897723143594</v>
+        <v>0.1432207312561223</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>58.24795766666667</v>
+        <v>50.36899566666667</v>
       </c>
       <c r="H12">
-        <v>174.743873</v>
+        <v>151.106987</v>
       </c>
       <c r="I12">
-        <v>0.1612965539718111</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="J12">
-        <v>0.1612965539718112</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.616788</v>
       </c>
       <c r="O12">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P12">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q12">
-        <v>11.975547104436</v>
+        <v>10.355664033084</v>
       </c>
       <c r="R12">
-        <v>107.779923939924</v>
+        <v>93.200976297756</v>
       </c>
       <c r="S12">
-        <v>0.0007532498779573293</v>
+        <v>0.0005564328968917841</v>
       </c>
       <c r="T12">
-        <v>0.0007532498779573292</v>
+        <v>0.000556432896891784</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>58.24795766666667</v>
+        <v>50.36899566666667</v>
       </c>
       <c r="H13">
-        <v>174.743873</v>
+        <v>151.106987</v>
       </c>
       <c r="I13">
-        <v>0.1612965539718111</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="J13">
-        <v>0.1612965539718112</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N13">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O13">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P13">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q13">
-        <v>15.159729958242</v>
+        <v>13.14483037846045</v>
       </c>
       <c r="R13">
-        <v>136.437569624178</v>
+        <v>118.303473406144</v>
       </c>
       <c r="S13">
-        <v>0.0009535317794943989</v>
+        <v>0.0007063010178073188</v>
       </c>
       <c r="T13">
-        <v>0.0009535317794943989</v>
+        <v>0.0007063010178073186</v>
       </c>
     </row>
   </sheetData>
